--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1863,10 +1875,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1910,28 +1922,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1956,28 +1968,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2094,10 +2106,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2141,28 +2153,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2187,28 +2199,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2366,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2413,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2459,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2585,10 +2597,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2632,28 +2644,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2678,28 +2690,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2903,10 +2915,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2950,28 +2962,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2996,28 +3008,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3117,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3152,28 +3164,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3210,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3493,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3528,28 +3540,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3586,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3695,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3730,28 +3742,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3788,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3943,10 +3955,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3990,28 +4002,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4036,28 +4048,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4145,10 +4157,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4192,28 +4204,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4238,28 +4250,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4347,10 +4359,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4394,28 +4406,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4440,28 +4452,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4549,10 +4561,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4596,28 +4608,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4642,28 +4654,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4722,10 +4734,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4769,28 +4781,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4815,28 +4827,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4924,10 +4936,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4971,28 +4983,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5017,28 +5029,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5109,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5144,28 +5156,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5202,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5299,10 +5311,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5346,28 +5358,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5392,28 +5404,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5501,10 +5513,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5548,28 +5560,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5594,28 +5606,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5859,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5952,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6020,10 +6032,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6067,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6113,28 +6125,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6424,10 +6436,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6471,28 +6483,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6517,28 +6529,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6597,10 +6609,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6644,28 +6656,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6690,28 +6702,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6770,10 +6782,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6817,28 +6829,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6863,28 +6875,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6943,10 +6955,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6990,28 +7002,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7036,28 +7048,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7174,10 +7186,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7221,28 +7233,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7267,28 +7279,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7359,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7406,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7452,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7549,10 +7561,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7596,28 +7608,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7642,28 +7654,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7751,10 +7763,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7798,28 +7810,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7844,28 +7856,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7924,10 +7936,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7971,28 +7983,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8017,28 +8029,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8097,10 +8109,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8144,28 +8156,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8190,28 +8202,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8270,10 +8282,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8317,28 +8329,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8363,28 +8375,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8443,10 +8455,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8490,28 +8502,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8536,28 +8548,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8616,10 +8628,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8663,28 +8675,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8709,28 +8721,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8789,10 +8801,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8836,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8882,28 +8894,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8962,10 +8974,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9009,28 +9021,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9055,28 +9067,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9135,10 +9147,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9182,28 +9194,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9228,28 +9240,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9308,10 +9320,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9355,28 +9367,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9401,28 +9413,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9481,10 +9493,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9528,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9574,28 +9586,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9654,10 +9666,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9701,28 +9713,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9747,28 +9759,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9827,10 +9839,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
